--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_22.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1070938.318894631</v>
+        <v>1044501.763584681</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443467</v>
+        <v>18621122.0044347</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="U2" t="n">
+      <c r="X2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V2" t="n">
+      <c r="Y2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>119.0247444220177</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>5.211223902333169</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.5178444382804</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>24.75543250779077</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>205.5178444382804</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,13 +1032,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>14.48693373137006</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.5178444382804</v>
+        <v>153.6816173514498</v>
       </c>
       <c r="Y6" t="n">
         <v>205.5178444382804</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="E8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>205.5178444382804</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.565027066663836</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>14.48693373137006</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
         <v>205.5178444382804</v>
@@ -1278,7 +1278,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1382,61 +1382,61 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="W11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I11" t="n">
+      <c r="X11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
+      <c r="Y11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,13 +1446,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>136.2124090935528</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1461,13 +1461,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>36.71422784070965</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1506,13 +1506,13 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.5178444382804</v>
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>130.4655268502615</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>159.0801288120801</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1619,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>205.5178444382804</v>
@@ -1649,19 +1649,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1692,19 +1692,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>107.2644082870342</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1746,10 +1746,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>167.1762449631172</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,19 +1853,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>71.01467844038818</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,25 +1923,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1971,19 +1971,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,64 +2078,64 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
-        <v>208.2638363878125</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2172,16 +2172,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>91.01634947177179</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>38.83326460888582</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,22 +2360,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>40.47627913313517</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2412,13 +2412,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,22 +2445,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>109.8883707013301</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>160.4786863140833</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2494,10 +2494,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>37.10634673358869</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,10 +2518,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,16 +2564,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
-        <v>51.72215467797748</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2682,22 +2682,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>55.57566235103583</v>
+        <v>123.1386402295798</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2731,49 +2731,49 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2834,13 +2834,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2855,10 +2855,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,13 +2868,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,16 +2919,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>105.6152911330825</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>157.2246750137608</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3007,10 +3007,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,67 +3026,67 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>241.0142888776591</v>
@@ -3108,13 +3108,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>128.9764887865587</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3153,19 +3153,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>143.1689537721622</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3187,58 +3187,58 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="E35" t="n">
         <v>241.0142888776591</v>
@@ -3278,50 +3278,50 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,16 +3342,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>58.19583646877125</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>241.0142888776591</v>
@@ -3545,13 +3545,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3582,13 +3582,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>57.37326269883805</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -3627,25 +3627,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>7.623236342167999</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3658,61 +3658,61 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3752,13 +3752,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
-        <v>169.0708280266249</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -3794,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>205.5178444382804</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="W41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3822,7 +3822,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>47.29627918133474</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>105.3690580549764</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="43">
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="F44" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4053,13 +4053,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>113.950365236779</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>81.13095251577728</v>
       </c>
       <c r="U45" t="n">
         <v>205.5178444382804</v>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4135,67 +4135,67 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C2" t="n">
         <v>16.44142755506243</v>
@@ -4358,22 +4358,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="U2" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V2" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W2" t="n">
         <v>639.2227743377304</v>
       </c>
-      <c r="U2" t="n">
+      <c r="X2" t="n">
         <v>431.628992076841</v>
       </c>
-      <c r="V2" t="n">
+      <c r="Y2" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="W2" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="X2" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>339.8288664974407</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="C3" t="n">
-        <v>165.3758372163137</v>
+        <v>136.6684421227571</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>136.6684421227571</v>
       </c>
       <c r="E3" t="n">
         <v>16.44142755506243</v>
@@ -4413,16 +4413,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>232.5025681519757</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9652341458732</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O3" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P3" t="n">
         <v>822.0713777531216</v>
@@ -4437,22 +4437,22 @@
         <v>720.9018483060073</v>
       </c>
       <c r="T3" t="n">
-        <v>720.9018483060073</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="U3" t="n">
-        <v>720.9018483060073</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="V3" t="n">
-        <v>720.9018483060073</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="W3" t="n">
-        <v>720.9018483060073</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="X3" t="n">
-        <v>715.637985778398</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="Y3" t="n">
-        <v>508.0442035175087</v>
+        <v>311.1214714038841</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="J4" t="n">
         <v>38.93586374282289</v>
@@ -4507,31 +4507,31 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
     </row>
     <row r="5">
@@ -4568,19 +4568,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4598,19 +4598,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X5" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y5" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="6">
@@ -4653,10 +4653,10 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O6" t="n">
         <v>570.0333416264414</v>
@@ -4668,22 +4668,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V6" t="n">
-        <v>807.4381113577983</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="W6" t="n">
-        <v>599.8443290969091</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="X6" t="n">
         <v>392.2505468360198</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J7" t="n">
         <v>38.93586374282289</v>
@@ -4741,34 +4741,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.8838132313431</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C8" t="n">
-        <v>199.2900309704538</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="D8" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E8" t="n">
         <v>16.44142755506243</v>
@@ -4814,7 +4814,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O8" t="n">
         <v>822.0713777531216</v>
@@ -4823,31 +4823,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X8" t="n">
-        <v>614.4775954922324</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="Y8" t="n">
-        <v>406.8838132313431</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C9" t="n">
-        <v>16.44142755506243</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4887,10 +4887,10 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N9" t="n">
         <v>435.9652341458732</v>
@@ -4917,16 +4917,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>807.4381113577983</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W9" t="n">
-        <v>599.8443290969091</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X9" t="n">
-        <v>392.2505468360198</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y9" t="n">
-        <v>184.6567645751305</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="10">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>604.3859801240053</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C11" t="n">
-        <v>604.3859801240053</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
-        <v>604.3859801240053</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
-        <v>604.3859801240053</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>604.3859801240053</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
         <v>16.44142755506243</v>
@@ -5042,16 +5042,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
         <v>732.4113224610707</v>
@@ -5060,31 +5060,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
-        <v>604.3859801240053</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W11" t="n">
-        <v>604.3859801240053</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X11" t="n">
-        <v>604.3859801240053</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y11" t="n">
-        <v>604.3859801240053</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>369.7987346043636</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="C12" t="n">
-        <v>369.7987346043636</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="D12" t="n">
-        <v>220.8643249431123</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="E12" t="n">
-        <v>220.8643249431123</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="F12" t="n">
-        <v>220.8643249431123</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8643249431123</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I12" t="n">
         <v>17.19556020784815</v>
@@ -5121,16 +5121,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O12" t="n">
         <v>570.0333416264414</v>
@@ -5145,25 +5145,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>784.9862991261422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>784.9862991261422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>784.9862991261422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>577.3925168652529</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W12" t="n">
-        <v>577.3925168652529</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X12" t="n">
-        <v>577.3925168652529</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y12" t="n">
-        <v>369.7987346043636</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5215,34 +5215,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>443.6989813239244</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="C14" t="n">
         <v>443.6989813239244</v>
@@ -5267,7 +5267,7 @@
         <v>443.6989813239244</v>
       </c>
       <c r="G14" t="n">
-        <v>236.1051990630351</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="H14" t="n">
         <v>236.1051990630351</v>
@@ -5288,7 +5288,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
         <v>822.0713777531216</v>
@@ -5297,31 +5297,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S14" t="n">
-        <v>651.2927635848137</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T14" t="n">
-        <v>651.2927635848137</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U14" t="n">
-        <v>443.6989813239244</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V14" t="n">
-        <v>443.6989813239244</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W14" t="n">
-        <v>443.6989813239244</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X14" t="n">
-        <v>443.6989813239244</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="Y14" t="n">
-        <v>443.6989813239244</v>
+        <v>811.9797623848946</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>614.4775954922324</v>
+        <v>176.4330152133036</v>
       </c>
       <c r="C15" t="n">
-        <v>614.4775954922324</v>
+        <v>176.4330152133036</v>
       </c>
       <c r="D15" t="n">
-        <v>614.4775954922324</v>
+        <v>176.4330152133036</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I15" t="n">
         <v>17.19556020784815</v>
@@ -5367,40 +5367,40 @@
         <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
-        <v>548.724319600695</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="W15" t="n">
-        <v>614.4775954922324</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="X15" t="n">
-        <v>614.4775954922324</v>
+        <v>176.4330152133036</v>
       </c>
       <c r="Y15" t="n">
-        <v>614.4775954922324</v>
+        <v>176.4330152133036</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I16" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5452,34 +5452,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5540,25 +5540,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5601,10 +5601,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O18" t="n">
         <v>712.019119383956</v>
@@ -5619,25 +5619,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W18" t="n">
-        <v>20.03527576299844</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X18" t="n">
-        <v>20.03527576299844</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.03527576299844</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="19">
@@ -5704,16 +5704,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>728.6161971483371</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>728.6161971483371</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>728.6161971483371</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>728.6161971483371</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V20" t="n">
-        <v>728.6161971483371</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W20" t="n">
-        <v>728.6161971483371</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X20" t="n">
-        <v>728.6161971483371</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y20" t="n">
-        <v>728.6161971483371</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>111.216849647356</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="C21" t="n">
-        <v>111.216849647356</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="D21" t="n">
-        <v>111.216849647356</v>
+        <v>149.5604247127973</v>
       </c>
       <c r="E21" t="n">
-        <v>111.216849647356</v>
+        <v>149.5604247127973</v>
       </c>
       <c r="F21" t="n">
-        <v>111.216849647356</v>
+        <v>149.5604247127973</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>149.5604247127973</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>487.2836868729568</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>487.2836868729568</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W21" t="n">
-        <v>487.2836868729568</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X21" t="n">
-        <v>279.432186667424</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="Y21" t="n">
-        <v>279.432186667424</v>
+        <v>298.4948343740486</v>
       </c>
     </row>
     <row r="22">
@@ -5932,28 +5932,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>761.6974622895962</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T23" t="n">
-        <v>761.6974622895962</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U23" t="n">
-        <v>761.6974622895962</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V23" t="n">
-        <v>761.6974622895962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W23" t="n">
-        <v>761.6974622895962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X23" t="n">
-        <v>761.6974622895962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y23" t="n">
-        <v>761.6974622895962</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6042,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>853.0588012668684</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>650.8722066256344</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>422.6485883620235</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="W24" t="n">
-        <v>599.7708777238635</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="X24" t="n">
-        <v>391.9193775183306</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y24" t="n">
-        <v>391.9193775183306</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.03213664411894</v>
+        <v>961.308225475175</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>231.8830517671884</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C26" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6251,25 +6251,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>284.1276524520142</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>231.8830517671884</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>231.8830517671884</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F27" t="n">
         <v>19.28114311021272</v>
@@ -6309,16 +6309,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>907.9201228328222</v>
+        <v>839.6746906322728</v>
       </c>
       <c r="T27" t="n">
-        <v>705.7335281915883</v>
+        <v>637.4880959910388</v>
       </c>
       <c r="U27" t="n">
-        <v>705.7335281915883</v>
+        <v>409.2644777274278</v>
       </c>
       <c r="V27" t="n">
-        <v>470.5814199598456</v>
+        <v>409.2644777274278</v>
       </c>
       <c r="W27" t="n">
-        <v>227.1326433157456</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
         <v>19.28114311021272</v>
@@ -6421,13 +6421,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6443,7 @@
         <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
         <v>262.7299197543128</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>481.3994074699755</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C30" t="n">
-        <v>306.9463781888485</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,10 +6546,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>234.810827406191</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N30" t="n">
         <v>473.4149733950735</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>857.3750432549973</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>857.3750432549973</v>
+        <v>429.6404132758682</v>
       </c>
       <c r="V30" t="n">
-        <v>857.3750432549973</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="W30" t="n">
-        <v>857.3750432549973</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="X30" t="n">
-        <v>857.3750432549973</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="Y30" t="n">
-        <v>649.6147444900434</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6728,22 +6728,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>298.4948343740486</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C33" t="n">
-        <v>298.4948343740486</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D33" t="n">
-        <v>149.5604247127973</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
         <v>19.28114311021272</v>
@@ -6786,43 +6786,43 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N33" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>533.6469426057913</v>
+        <v>342.668582052591</v>
       </c>
       <c r="V33" t="n">
-        <v>298.4948343740486</v>
+        <v>342.668582052591</v>
       </c>
       <c r="W33" t="n">
-        <v>298.4948343740486</v>
+        <v>342.668582052591</v>
       </c>
       <c r="X33" t="n">
-        <v>298.4948343740486</v>
+        <v>342.668582052591</v>
       </c>
       <c r="Y33" t="n">
-        <v>298.4948343740486</v>
+        <v>342.668582052591</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6968,19 +6968,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>501.9060370580465</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>327.4530077769195</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
         <v>19.28114311021272</v>
@@ -7017,49 +7017,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T36" t="n">
-        <v>905.2734823098572</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U36" t="n">
-        <v>905.2734823098572</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V36" t="n">
-        <v>670.1213740781145</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W36" t="n">
-        <v>670.1213740781145</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X36" t="n">
-        <v>670.1213740781145</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>670.1213740781145</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>411.6785506544679</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C39" t="n">
-        <v>237.2255213733409</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D39" t="n">
-        <v>179.2727307684539</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
         <v>20.03527576299844</v>
@@ -7257,16 +7257,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>956.3569167811736</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>754.1703221399396</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>525.9467038763287</v>
       </c>
       <c r="V39" t="n">
-        <v>862.8876260635219</v>
+        <v>525.9467038763287</v>
       </c>
       <c r="W39" t="n">
-        <v>619.4388494194218</v>
+        <v>525.9467038763287</v>
       </c>
       <c r="X39" t="n">
-        <v>619.4388494194218</v>
+        <v>318.0952036707959</v>
       </c>
       <c r="Y39" t="n">
-        <v>411.6785506544679</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="40">
@@ -7360,22 +7360,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>199.2900309704538</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="C41" t="n">
-        <v>199.2900309704538</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="D41" t="n">
-        <v>199.2900309704538</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="E41" t="n">
-        <v>199.2900309704538</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="F41" t="n">
-        <v>199.2900309704538</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="G41" t="n">
-        <v>199.2900309704538</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="H41" t="n">
-        <v>28.51141680214578</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I41" t="n">
         <v>28.51141680214578</v>
@@ -7418,10 +7418,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
         <v>732.4113224610707</v>
@@ -7442,19 +7442,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U41" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V41" t="n">
-        <v>406.8838132313431</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="W41" t="n">
-        <v>199.2900309704538</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="X41" t="n">
-        <v>199.2900309704538</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="Y41" t="n">
-        <v>199.2900309704538</v>
+        <v>651.2927635848137</v>
       </c>
     </row>
     <row r="42">
@@ -7464,10 +7464,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>339.8288664974407</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C42" t="n">
-        <v>165.3758372163137</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="D42" t="n">
         <v>16.44142755506243</v>
@@ -7494,16 +7494,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>211.6833797714288</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M42" t="n">
-        <v>415.1460457653264</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N42" t="n">
-        <v>618.608711759224</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P42" t="n">
         <v>822.0713777531216</v>
@@ -7533,7 +7533,7 @@
         <v>614.4775954922324</v>
       </c>
       <c r="Y42" t="n">
-        <v>508.0442035175087</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="G43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L43" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M43" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N43" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="44">
@@ -7628,16 +7628,16 @@
         <v>406.8838132313431</v>
       </c>
       <c r="D44" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E44" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7649,19 +7649,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
-        <v>603.4426111275161</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
-        <v>752.6375612701642</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7685,13 +7685,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W44" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X44" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="Y44" t="n">
         <v>614.4775954922324</v>
-      </c>
-      <c r="X44" t="n">
-        <v>614.4775954922324</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>132.2969392348976</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C45" t="n">
-        <v>132.2969392348976</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M45" t="n">
-        <v>345.2616536067974</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T45" t="n">
-        <v>547.4845037566762</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="U45" t="n">
-        <v>339.8907214957869</v>
+        <v>359.1097938562575</v>
       </c>
       <c r="V45" t="n">
-        <v>339.8907214957869</v>
+        <v>359.1097938562575</v>
       </c>
       <c r="W45" t="n">
-        <v>339.8907214957869</v>
+        <v>359.1097938562575</v>
       </c>
       <c r="X45" t="n">
-        <v>339.8907214957869</v>
+        <v>359.1097938562575</v>
       </c>
       <c r="Y45" t="n">
-        <v>132.2969392348976</v>
+        <v>359.1097938562575</v>
       </c>
     </row>
     <row r="46">
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C46" t="n">
         <v>16.44142755506243</v>
@@ -7843,13 +7843,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
   </sheetData>
@@ -8061,19 +8061,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8216,10 +8216,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
@@ -8228,10 +8228,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8301,13 +8301,13 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
         <v>152.8659767558044</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8462,10 +8462,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O8" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8535,13 +8535,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N9" t="n">
-        <v>222.9614904056321</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
@@ -8690,10 +8690,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M11" t="n">
         <v>435.8640776655532</v>
@@ -8702,7 +8702,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8769,19 +8769,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8936,10 +8936,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P14" t="n">
         <v>231.2329957552695</v>
@@ -9015,16 +9015,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>164.1205091169155</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9249,13 +9249,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9480,19 +9480,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,19 +9957,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10194,13 +10194,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>229.6373335557741</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10434,7 +10434,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10677,13 +10677,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>312.5053919605859</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10905,10 +10905,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M39" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10917,7 +10917,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11066,13 +11066,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11142,7 +11142,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>335.768472927719</v>
+        <v>151.2801117021122</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
@@ -11154,7 +11154,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11297,13 +11297,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>335.768472927719</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,7 +22547,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22598,22 +22598,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>42.075732182894</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>168.2208513361757</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -22623,16 +22623,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>38.62033603338321</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22677,7 +22677,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -22689,7 +22689,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>200.5617613011443</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0.1648513390239543</v>
@@ -22723,10 +22723,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>68.603747608882</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22781,7 +22781,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>159.7550473327271</v>
@@ -22838,16 +22838,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>70.32553552659914</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>188.7109832972317</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22908,10 +22908,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22920,13 +22920,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>218.3136534180552</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2551407651970692</v>
+        <v>52.09136785202764</v>
       </c>
       <c r="Y6" t="n">
         <v>0.1648513390239543</v>
@@ -22960,10 +22960,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22981,13 +22981,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,16 +23018,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
         <v>159.7550473327271</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>333.52274139514</v>
       </c>
       <c r="E8" t="n">
-        <v>200.9102526910243</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23063,10 +23063,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23084,7 +23084,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>180.7200942177732</v>
@@ -23097,10 +23097,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23118,10 +23118,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>81.83160578475125</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23157,7 +23157,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>218.3136534180552</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
         <v>46.1771387226392</v>
@@ -23166,7 +23166,7 @@
         <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23270,13 +23270,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>244.2733193484424</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23300,7 +23300,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23315,16 +23315,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>122.2344140318545</v>
+        <v>146.7321410888975</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23334,13 +23334,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>30.32077455631452</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23349,13 +23349,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23385,7 +23385,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>134.9689432631282</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23394,13 +23394,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
         <v>0.1648513390239543</v>
@@ -23434,13 +23434,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>24.98494807699677</v>
+        <v>44.53299916777313</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,7 +23455,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>223.6537128514005</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23507,10 +23507,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
         <v>4.958045132125505</v>
@@ -23537,19 +23537,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>39.94924155962048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23580,19 +23580,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>50.38067216836671</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,13 +23619,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23634,10 +23634,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>38.59674024036028</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,19 +23741,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>335.8613673013232</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23780,16 +23780,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,25 +23811,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23859,19 +23859,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>247.8610253924609</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23944,7 +23944,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,22 +23966,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
-        <v>173.6665336844493</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -23990,7 +23990,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24020,10 +24020,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24045,13 +24045,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24060,16 +24060,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>46.32716769143885</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>73.40217962761065</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,25 +24093,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24172,7 +24172,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24203,13 +24203,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24218,7 +24218,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24227,7 +24227,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,22 +24248,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>168.5437904531102</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>215.4233321629012</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24300,13 +24300,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,22 +24333,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>61.79480040250768</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>91.21629684683626</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24382,10 +24382,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>155.4504749272583</v>
+        <v>118.3441281936696</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>22.26949182588285</v>
@@ -24406,10 +24406,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24443,7 +24443,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,16 +24452,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24491,22 +24491,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>318.0089460004916</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24531,7 +24531,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24570,22 +24570,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>116.107508752802</v>
+        <v>48.54453087425806</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24619,7 +24619,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
         <v>93.35918011667277</v>
@@ -24661,7 +24661,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,16 +24677,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24722,13 +24722,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24743,10 +24743,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,13 +24756,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24771,7 +24771,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24780,7 +24780,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,16 +24807,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>94.54943756173908</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>68.71670706721397</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24825,7 +24825,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24895,10 +24895,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,7 +24926,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24968,13 +24968,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>108.226679839754</v>
@@ -24996,13 +24996,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>28.6685916688422</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25041,19 +25041,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>82.77242830881264</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25075,7 +25075,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25126,7 +25126,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25157,7 +25157,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>154.3469453318534</v>
       </c>
       <c r="E35" t="n">
         <v>140.9160811946027</v>
@@ -25166,7 +25166,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25175,7 +25175,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25208,7 +25208,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,7 +25217,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,16 +25230,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25278,22 +25278,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>64.7505686791048</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>141.9688922260503</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25321,7 +25321,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25330,7 +25330,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>170.4484560200386</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>124.2586028933485</v>
@@ -25433,13 +25433,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>6.725383157348171</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25470,13 +25470,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>90.07180286580069</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25488,7 +25488,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,25 +25515,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>164.0599347616698</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25600,7 +25600,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25640,13 +25640,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
-        <v>170.4039740891423</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,13 +25682,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>158.68143044351</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25710,7 +25710,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>100.148786383304</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25773,7 +25773,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>100.313637722328</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="43">
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25837,7 +25837,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25862,25 +25862,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>173.6629242394455</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>225.855928360474</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25925,7 +25925,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25941,13 +25941,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>33.49470032785977</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25965,7 +25965,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,13 +25989,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>119.0337761790443</v>
       </c>
       <c r="U45" t="n">
         <v>20.42353764269441</v>
@@ -26010,7 +26010,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26023,7 +26023,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26083,7 +26083,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>394496.1329214217</v>
+        <v>394496.1329214218</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>394496.1329214216</v>
+        <v>394496.1329214217</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>394496.1329214217</v>
+        <v>394496.1329214216</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>415520.7712184747</v>
+        <v>415520.7712184748</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>415520.771218475</v>
+        <v>415520.7712184748</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>415520.771218475</v>
+        <v>415520.7712184748</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>415520.7712184748</v>
+        <v>415520.7712184749</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>415520.771218475</v>
+        <v>415520.7712184748</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>415520.7712184748</v>
+        <v>415520.7712184747</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>394496.1329214217</v>
+        <v>394496.1329214218</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>394496.1329214217</v>
+        <v>394496.1329214218</v>
       </c>
     </row>
   </sheetData>
@@ -26323,16 +26323,16 @@
         <v>173533.4060184247</v>
       </c>
       <c r="F2" t="n">
-        <v>173533.4060184248</v>
+        <v>173533.4060184247</v>
       </c>
       <c r="G2" t="n">
-        <v>182776.7397844657</v>
+        <v>182776.7397844656</v>
       </c>
       <c r="H2" t="n">
         <v>182776.7397844656</v>
       </c>
       <c r="I2" t="n">
-        <v>182776.7397844657</v>
+        <v>182776.7397844656</v>
       </c>
       <c r="J2" t="n">
         <v>182776.7397844656</v>
@@ -26353,7 +26353,7 @@
         <v>173533.4060184248</v>
       </c>
       <c r="P2" t="n">
-        <v>173533.4060184247</v>
+        <v>173533.4060184248</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12944.46415789076</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="C4" t="n">
-        <v>12944.46415789076</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="D4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="E4" t="n">
-        <v>12944.46415789076</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="F4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="G4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>12944.46415789076</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="P4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45592.10033699664</v>
+        <v>42504.96041836868</v>
       </c>
       <c r="C6" t="n">
-        <v>114465.8569186865</v>
+        <v>111378.7170000585</v>
       </c>
       <c r="D6" t="n">
-        <v>114465.8569186865</v>
+        <v>111378.7170000585</v>
       </c>
       <c r="E6" t="n">
-        <v>148093.4569186865</v>
+        <v>145006.3170000585</v>
       </c>
       <c r="F6" t="n">
-        <v>148093.4569186865</v>
+        <v>145006.3170000585</v>
       </c>
       <c r="G6" t="n">
-        <v>144733.1768471595</v>
+        <v>141479.338405556</v>
       </c>
       <c r="H6" t="n">
-        <v>154462.2198213265</v>
+        <v>151208.3813797231</v>
       </c>
       <c r="I6" t="n">
-        <v>154462.2198213266</v>
+        <v>151208.3813797231</v>
       </c>
       <c r="J6" t="n">
-        <v>100689.7089311171</v>
+        <v>97435.87048951371</v>
       </c>
       <c r="K6" t="n">
-        <v>154462.2198213265</v>
+        <v>151208.3813797231</v>
       </c>
       <c r="L6" t="n">
-        <v>154462.2198213265</v>
+        <v>151208.3813797231</v>
       </c>
       <c r="M6" t="n">
-        <v>154462.2198213265</v>
+        <v>151208.3813797231</v>
       </c>
       <c r="N6" t="n">
-        <v>154462.2198213265</v>
+        <v>151208.3813797231</v>
       </c>
       <c r="O6" t="n">
-        <v>148093.4569186866</v>
+        <v>145006.3170000586</v>
       </c>
       <c r="P6" t="n">
-        <v>148093.4569186865</v>
+        <v>145006.3170000586</v>
       </c>
     </row>
   </sheetData>
@@ -34781,19 +34781,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34936,10 +34936,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
@@ -34948,10 +34948,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35021,13 +35021,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
         <v>21.52426467247106</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35182,10 +35182,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O8" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35255,13 +35255,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N9" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
@@ -35410,10 +35410,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M11" t="n">
         <v>205.5178444382804</v>
@@ -35422,7 +35422,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35656,10 +35656,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35735,16 +35735,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>21.52426467247106</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35969,13 +35969,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,19 +36677,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36914,13 +36914,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N30" t="n">
         <v>91.0829537758999</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37075,7 +37075,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37154,7 +37154,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37166,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37397,13 +37397,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>169.9091475161414</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37625,10 +37625,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M39" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37637,7 +37637,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37786,13 +37786,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37862,7 +37862,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>197.2140931478448</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
@@ -37874,7 +37874,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38032,7 +38032,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
+        <v>197.2140931478448</v>
+      </c>
+      <c r="M45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
       <c r="N45" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1044501.763584681</v>
+        <v>1045285.90952271</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.0044347</v>
+        <v>18621122.00443469</v>
       </c>
     </row>
     <row r="9">
@@ -659,73 +661,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W2" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>119.0247444220177</v>
+        <v>5.211223902333198</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -789,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J4" t="n">
-        <v>24.75543250779077</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
         <v>205.5178444382804</v>
@@ -950,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="V5" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>153.1766917053302</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -984,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1038,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>153.6816173514498</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1136,7 +1138,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="D8" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,25 +1214,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>7.692106705274854</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>7.565027066663836</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1269,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1370,16 +1372,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1427,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,31 +1448,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>136.2124090935528</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>119.6102769929015</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1500,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1512,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>159.0801288120801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>205.5178444382804</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -1649,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1692,13 +1694,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1707,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>82.86438929592808</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -1740,7 +1742,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1749,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>167.1762449631172</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1850,22 +1852,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>71.01467844038818</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,10 +1888,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1923,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2102,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2123,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2132,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2157,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2175,10 +2177,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>38.83326460888582</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -2205,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>90.26975814551395</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2236,64 +2238,64 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2330,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2360,22 +2362,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2412,13 +2414,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>67.03143477327541</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>109.8883707013301</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2494,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>37.10634673358869</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,10 +2520,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2555,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,61 +2566,61 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2643,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2682,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>123.1386402295798</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="28">
@@ -2789,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2834,16 +2836,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2855,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2874,7 +2876,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2883,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2892,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,16 +2921,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>157.2246750137608</v>
+        <v>71.98374608812802</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2937,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3007,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3080,16 +3082,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3108,10 +3110,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3153,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>143.1689537721622</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3263,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>200.3360962888296</v>
       </c>
       <c r="E35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3287,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3320,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3408,7 +3410,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3433,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3545,10 +3547,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
         <v>3.265316057196634</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -3579,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>33.51003907654566</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3591,19 +3593,19 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,22 +3632,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>7.623236342167999</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3758,49 +3760,49 @@
         <v>205.5178444382804</v>
       </c>
       <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="J41" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3910,40 +3912,40 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3977,16 +3979,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="E44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4053,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4101,25 +4103,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>81.13095251577728</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>86.21539897205304</v>
+      </c>
+      <c r="W45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4304,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C2" t="n">
         <v>16.44142755506243</v>
@@ -4340,7 +4342,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
         <v>732.4113224610707</v>
@@ -4355,25 +4357,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W2" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X2" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>311.1214714038841</v>
+        <v>345.09272902505</v>
       </c>
       <c r="C3" t="n">
-        <v>136.6684421227571</v>
+        <v>170.639699743923</v>
       </c>
       <c r="D3" t="n">
-        <v>136.6684421227571</v>
+        <v>21.70529008267172</v>
       </c>
       <c r="E3" t="n">
         <v>16.44142755506243</v>
@@ -4410,22 +4412,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M3" t="n">
-        <v>548.724319600695</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N3" t="n">
-        <v>752.1869855945927</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O3" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4437,22 +4439,22 @@
         <v>720.9018483060073</v>
       </c>
       <c r="T3" t="n">
-        <v>518.7152536647734</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U3" t="n">
-        <v>518.7152536647734</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V3" t="n">
-        <v>518.7152536647734</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W3" t="n">
-        <v>518.7152536647734</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X3" t="n">
-        <v>518.7152536647734</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y3" t="n">
-        <v>311.1214714038841</v>
+        <v>513.308066045118</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C4" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D4" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E4" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F4" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G4" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H4" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I4" t="n">
-        <v>63.94135112442973</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J4" t="n">
         <v>38.93586374282289</v>
@@ -4507,31 +4509,31 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V4" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X4" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y4" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="5">
@@ -4568,19 +4570,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4598,19 +4600,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U5" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V5" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W5" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X5" t="n">
         <v>639.2227743377304</v>
       </c>
-      <c r="V5" t="n">
+      <c r="Y5" t="n">
         <v>431.628992076841</v>
-      </c>
-      <c r="W5" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="X5" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.44142755506243</v>
+        <v>392.7605727411911</v>
       </c>
       <c r="C6" t="n">
-        <v>16.44142755506243</v>
+        <v>392.7605727411911</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44142755506243</v>
+        <v>392.7605727411911</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>392.7605727411911</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4650,13 +4652,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M6" t="n">
         <v>345.2616536067974</v>
       </c>
-      <c r="M6" t="n">
-        <v>548.724319600695</v>
-      </c>
       <c r="N6" t="n">
-        <v>570.0333416264414</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O6" t="n">
         <v>570.0333416264414</v>
@@ -4686,10 +4688,10 @@
         <v>547.4845037566762</v>
       </c>
       <c r="X6" t="n">
-        <v>392.2505468360198</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="Y6" t="n">
-        <v>184.6567645751305</v>
+        <v>547.4845037566762</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I7" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J7" t="n">
         <v>38.93586374282289</v>
@@ -4741,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>245.4092504478133</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C8" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D8" t="n">
         <v>16.44142755506243</v>
@@ -4814,7 +4816,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
         <v>822.0713777531216</v>
@@ -4829,25 +4831,25 @@
         <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>660.5968149695918</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T8" t="n">
-        <v>660.5968149695918</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U8" t="n">
-        <v>660.5968149695918</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V8" t="n">
-        <v>660.5968149695918</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W8" t="n">
-        <v>660.5968149695918</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X8" t="n">
-        <v>660.5968149695918</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y8" t="n">
-        <v>453.0030327087026</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>199.2900309704538</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C9" t="n">
-        <v>24.83700168932677</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="D9" t="n">
-        <v>24.83700168932677</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E9" t="n">
-        <v>24.83700168932677</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F9" t="n">
-        <v>24.83700168932677</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G9" t="n">
-        <v>24.83700168932677</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H9" t="n">
-        <v>24.83700168932677</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I9" t="n">
         <v>17.19556020784815</v>
@@ -4884,22 +4886,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M9" t="n">
-        <v>435.9652341458732</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4917,16 +4919,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W9" t="n">
-        <v>406.8838132313431</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X9" t="n">
-        <v>199.2900309704538</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y9" t="n">
-        <v>199.2900309704538</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="10">
@@ -5015,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F11" t="n">
         <v>16.44142755506243</v>
@@ -5042,10 +5044,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
         <v>379.753706324525</v>
@@ -5075,16 +5077,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W11" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X11" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>269.2955212176533</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="C12" t="n">
-        <v>269.2955212176533</v>
+        <v>445.4317538307606</v>
       </c>
       <c r="D12" t="n">
-        <v>269.2955212176533</v>
+        <v>296.4973441695093</v>
       </c>
       <c r="E12" t="n">
-        <v>269.2955212176533</v>
+        <v>137.2598891640538</v>
       </c>
       <c r="F12" t="n">
-        <v>269.2955212176533</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>130.5646958002688</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5124,16 +5126,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M12" t="n">
         <v>345.2616536067974</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>548.724319600695</v>
       </c>
-      <c r="N12" t="n">
-        <v>570.0333416264414</v>
-      </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P12" t="n">
         <v>752.6768192397923</v>
@@ -5148,22 +5150,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W12" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="X12" t="n">
-        <v>614.4775954922324</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="Y12" t="n">
-        <v>406.8838132313431</v>
+        <v>619.8847831118876</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I13" t="n">
         <v>38.93586374282289</v>
@@ -5221,28 +5223,28 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>651.2927635848137</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C14" t="n">
-        <v>443.6989813239244</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D14" t="n">
-        <v>443.6989813239244</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E14" t="n">
-        <v>443.6989813239244</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F14" t="n">
-        <v>443.6989813239244</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="G14" t="n">
-        <v>443.6989813239244</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="H14" t="n">
-        <v>236.1051990630351</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I14" t="n">
         <v>28.51141680214578</v>
@@ -5288,40 +5290,40 @@
         <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X14" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y14" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.4330152133036</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="C15" t="n">
-        <v>176.4330152133036</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="D15" t="n">
-        <v>176.4330152133036</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="E15" t="n">
-        <v>17.19556020784815</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="F15" t="n">
-        <v>17.19556020784815</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M15" t="n">
-        <v>548.724319600695</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N15" t="n">
-        <v>752.1869855945927</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
         <v>822.0713777531216</v>
@@ -5379,28 +5381,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>738.3699744239013</v>
       </c>
       <c r="S15" t="n">
-        <v>547.4845037566762</v>
+        <v>564.9526298745702</v>
       </c>
       <c r="T15" t="n">
-        <v>345.2979091154422</v>
+        <v>362.7660352333362</v>
       </c>
       <c r="U15" t="n">
-        <v>345.2979091154422</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="V15" t="n">
-        <v>345.2979091154422</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="W15" t="n">
-        <v>345.2979091154422</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="X15" t="n">
-        <v>176.4330152133036</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="Y15" t="n">
-        <v>176.4330152133036</v>
+        <v>155.1722529724469</v>
       </c>
     </row>
     <row r="16">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>802.5825927271064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,13 +5600,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N18" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
         <v>712.019119383956</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>862.8876260635219</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V18" t="n">
-        <v>862.8876260635219</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W18" t="n">
-        <v>862.8876260635219</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X18" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5695,13 +5697,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U20" t="n">
-        <v>720.6083788665362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y20" t="n">
-        <v>720.6083788665362</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>298.4948343740486</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C21" t="n">
-        <v>298.4948343740486</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>149.5604247127973</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>149.5604247127973</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>149.5604247127973</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>149.5604247127973</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
         <v>20.03527576299844</v>
@@ -5832,19 +5834,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>533.6469426057913</v>
+        <v>396.1021129885993</v>
       </c>
       <c r="V21" t="n">
-        <v>298.4948343740486</v>
+        <v>396.1021129885993</v>
       </c>
       <c r="W21" t="n">
-        <v>298.4948343740486</v>
+        <v>396.1021129885993</v>
       </c>
       <c r="X21" t="n">
-        <v>298.4948343740486</v>
+        <v>188.2506127830665</v>
       </c>
       <c r="Y21" t="n">
-        <v>298.4948343740486</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="22">
@@ -5941,19 +5943,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T23" t="n">
-        <v>376.1934816808115</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>132.7447050367114</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>178.0434248788474</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>178.0434248788474</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>178.0434248788474</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>178.0434248788474</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>178.0434248788474</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>178.0434248788474</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6078,13 +6080,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>853.0588012668684</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>650.8722066256344</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>422.6485883620235</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V24" t="n">
-        <v>187.4964801302808</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W24" t="n">
-        <v>187.4964801302808</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X24" t="n">
-        <v>187.4964801302808</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="Y24" t="n">
-        <v>187.4964801302808</v>
+        <v>346.2587618989155</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>961.308225475175</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q25" t="n">
-        <v>961.308225475175</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R25" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6257,19 +6259,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
         <v>19.28114311021272</v>
@@ -6312,16 +6314,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
+        <v>249.2442489785619</v>
+      </c>
+      <c r="N27" t="n">
         <v>487.8483949674443</v>
       </c>
-      <c r="N27" t="n">
+      <c r="O27" t="n">
         <v>726.4525409563269</v>
       </c>
-      <c r="O27" t="n">
-        <v>894.6625969973069</v>
-      </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>839.6746906322728</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>637.4880959910388</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>409.2644777274278</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>409.2644777274278</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>165.8157010833278</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>165.8157010833278</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6443,7 +6445,7 @@
         <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
         <v>262.7299197543128</v>
@@ -6482,13 +6484,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
         <v>749.627473042513</v>
@@ -6503,10 +6505,10 @@
         <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>194.4883050441255</v>
+        <v>481.3994074699755</v>
       </c>
       <c r="C30" t="n">
-        <v>20.03527576299844</v>
+        <v>306.9463781888485</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,10 +6548,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>383.2428491569326</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
         <v>473.4149733950735</v>
@@ -6567,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>429.6404132758682</v>
+        <v>689.1597062349294</v>
       </c>
       <c r="V30" t="n">
-        <v>194.4883050441255</v>
+        <v>689.1597062349294</v>
       </c>
       <c r="W30" t="n">
-        <v>194.4883050441255</v>
+        <v>689.1597062349294</v>
       </c>
       <c r="X30" t="n">
-        <v>194.4883050441255</v>
+        <v>689.1597062349294</v>
       </c>
       <c r="Y30" t="n">
-        <v>194.4883050441255</v>
+        <v>481.3994074699755</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6728,22 +6730,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U32" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V32" t="n">
-        <v>477.1596022224361</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W32" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6753,10 +6755,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>342.668582052591</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
         <v>19.28114311021272</v>
@@ -6780,49 +6782,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U33" t="n">
-        <v>342.668582052591</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V33" t="n">
-        <v>342.668582052591</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W33" t="n">
-        <v>342.668582052591</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X33" t="n">
-        <v>342.668582052591</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>342.668582052591</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="C35" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="D35" t="n">
         <v>477.1596022224361</v>
       </c>
-      <c r="C35" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="D35" t="n">
-        <v>274.7999090013961</v>
-      </c>
       <c r="E35" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6968,13 +6970,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
         <v>720.6083788665362</v>
@@ -7017,19 +7019,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7038,22 +7040,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>726.1056462496665</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>497.8820279860555</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V36" t="n">
-        <v>262.7299197543128</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W36" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X36" t="n">
         <v>19.28114311021272</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7193,7 +7195,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
         <v>960.7588564629629</v>
@@ -7227,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>110.334904905842</v>
+        <v>478.9995557818393</v>
       </c>
       <c r="C39" t="n">
-        <v>110.334904905842</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="D39" t="n">
-        <v>110.334904905842</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E39" t="n">
-        <v>110.334904905842</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F39" t="n">
-        <v>110.334904905842</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>65.60123993063803</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>956.3569167811736</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>754.1703221399396</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>525.9467038763287</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>525.9467038763287</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W39" t="n">
-        <v>525.9467038763287</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X39" t="n">
-        <v>318.0952036707959</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y39" t="n">
-        <v>110.334904905842</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="40">
@@ -7360,22 +7362,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>651.2927635848137</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C41" t="n">
-        <v>651.2927635848137</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D41" t="n">
-        <v>651.2927635848137</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E41" t="n">
-        <v>651.2927635848137</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F41" t="n">
-        <v>651.2927635848137</v>
+        <v>431.628992076841</v>
       </c>
       <c r="G41" t="n">
-        <v>443.6989813239244</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H41" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M41" t="n">
         <v>379.753706324525</v>
@@ -7439,22 +7441,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V41" t="n">
-        <v>651.2927635848137</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W41" t="n">
-        <v>651.2927635848137</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X41" t="n">
-        <v>651.2927635848137</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y41" t="n">
-        <v>651.2927635848137</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="42">
@@ -7491,19 +7493,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>29.03990215807806</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M42" t="n">
-        <v>232.5025681519757</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9652341458732</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P42" t="n">
         <v>822.0713777531216</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.8838132313431</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="C44" t="n">
-        <v>406.8838132313431</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="D44" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E44" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
         <v>16.44142755506243</v>
@@ -7655,13 +7657,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7670,28 +7672,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U44" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="V44" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="W44" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="X44" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="Y44" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
     </row>
     <row r="45">
@@ -7701,7 +7703,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>190.8944568361894</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
         <v>16.44142755506243</v>
@@ -7728,49 +7730,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>211.6833797714288</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>415.1460457653264</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N45" t="n">
-        <v>618.608711759224</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O45" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T45" t="n">
-        <v>566.7035761171468</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="U45" t="n">
-        <v>359.1097938562575</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="V45" t="n">
-        <v>359.1097938562575</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W45" t="n">
-        <v>359.1097938562575</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X45" t="n">
-        <v>359.1097938562575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y45" t="n">
-        <v>359.1097938562575</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7988,10 +7990,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O2" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O3" t="n">
-        <v>213.1865395540696</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,10 +8218,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
@@ -8228,10 +8230,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>347.6518783602987</v>
@@ -8307,7 +8309,7 @@
         <v>152.8659767558044</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8462,10 +8464,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8532,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>286.7024424905649</v>
       </c>
       <c r="M9" t="n">
-        <v>233.7538122443171</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,13 +8692,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8772,19 +8774,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>134.4691888741278</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8936,13 +8938,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O14" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>344.0722242181546</v>
@@ -9015,13 +9017,13 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O15" t="n">
-        <v>213.1865395540696</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9246,16 +9248,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O18" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9480,22 +9482,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9726,16 +9728,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9960,19 +9962,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,13 +10196,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>222.4246658592332</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10428,13 +10430,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M33" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10677,10 +10679,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,10 +10904,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>185.3423563661624</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10917,7 +10919,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11060,13 +11062,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>311.3779718877592</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11139,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>151.2801117021122</v>
+        <v>209.1446748894994</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
@@ -11154,7 +11156,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11303,16 +11305,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>335.768472927719</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,7 +22549,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22595,25 +22597,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>42.07573218289394</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
-        <v>168.2208513361757</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,16 +22625,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>38.62033603338321</v>
+        <v>152.4338565530678</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22677,7 +22679,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -22723,10 +22725,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>68.603747608882</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,7 +22749,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
         <v>159.7550473327271</v>
@@ -22838,16 +22840,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>70.32553552659914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>188.7109832972317</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22860,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>13.35649194453714</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22872,19 +22874,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22926,10 +22928,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>52.09136785202764</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22960,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23024,7 +23026,7 @@
         <v>159.7550473327271</v>
       </c>
       <c r="D8" t="n">
-        <v>333.52274139514</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23069,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>201.9355493385884</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23087,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23100,25 +23102,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>165.0163922830409</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>81.83160578475125</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23157,13 +23159,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23258,16 +23260,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>225.855928360474</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23315,16 +23317,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>146.7321410888975</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,31 +23336,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>30.32077455631452</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>25.45893540048239</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23388,7 +23390,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23400,10 +23402,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23434,7 +23436,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>44.53299916777313</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -23461,7 +23463,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>66.37591561768433</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>223.6537128514005</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C14" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23513,7 +23515,7 @@
         <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>4.958045132125505</v>
+        <v>41.40506154378102</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23537,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23558,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23580,13 +23582,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23595,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>17.29344485671506</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23628,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23637,7 +23639,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>38.59674024036028</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23738,22 +23740,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>335.8613673013232</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,10 +23776,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23811,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23935,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23944,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23966,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -23990,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24020,10 +24022,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>32.75045248984648</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24045,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24063,10 +24065,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>73.40217962761065</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>135.6716239354609</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24181,7 +24183,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24218,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24248,22 +24250,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>215.4233321629012</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24300,13 +24302,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>45.20400946322106</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,25 +24335,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>61.79480040250768</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24382,10 +24384,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>118.3441281936696</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
         <v>22.26949182588285</v>
@@ -24406,10 +24408,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24443,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,13 +24454,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24497,16 +24499,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24531,7 +24533,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24570,25 +24572,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>48.54453087425806</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="28">
@@ -24677,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24722,16 +24724,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24743,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24762,7 +24764,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24771,7 +24773,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24780,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,16 +24809,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>68.71670706721397</v>
+        <v>153.9576359928468</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24825,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24895,10 +24897,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,7 +24928,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24968,16 +24970,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>119.0371437604433</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24996,10 +24998,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25041,22 +25043,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>64.7505686791048</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>82.77242830881264</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25126,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25151,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>154.3469453318534</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25175,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25208,7 +25210,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25278,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>64.7505686791048</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25296,7 +25298,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25321,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25330,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25433,10 +25435,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>6.725383157348171</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -25467,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>133.0231445733217</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25479,19 +25481,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,22 +25520,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>164.0599347616698</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25600,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25646,10 +25648,10 @@
         <v>133.9569576774867</v>
       </c>
       <c r="I41" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25679,16 +25681,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>158.68143044351</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>168.2208513361756</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25831,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25865,16 +25867,16 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>323.5320421805953</v>
       </c>
       <c r="E44" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>225.855928360474</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25910,7 +25912,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25941,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25989,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>119.0337761790443</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>146.5851881773722</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>394496.1329214218</v>
+        <v>394496.1329214216</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>394496.1329214217</v>
+        <v>394496.1329214216</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>394496.1329214216</v>
+        <v>394496.1329214219</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>394496.1329214217</v>
+        <v>394496.1329214218</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>415520.7712184748</v>
+        <v>415520.771218475</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>415520.7712184748</v>
+        <v>415520.771218475</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>415520.7712184749</v>
+        <v>415520.7712184748</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>415520.7712184748</v>
+        <v>415520.7712184749</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>415520.7712184747</v>
+        <v>415520.7712184748</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>394496.1329214218</v>
+        <v>394496.1329214217</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>394496.1329214218</v>
+        <v>394496.1329214217</v>
       </c>
     </row>
   </sheetData>
@@ -26320,16 +26322,16 @@
         <v>173533.4060184247</v>
       </c>
       <c r="E2" t="n">
-        <v>173533.4060184247</v>
+        <v>173533.4060184248</v>
       </c>
       <c r="F2" t="n">
-        <v>173533.4060184247</v>
+        <v>173533.4060184248</v>
       </c>
       <c r="G2" t="n">
         <v>182776.7397844656</v>
       </c>
       <c r="H2" t="n">
-        <v>182776.7397844656</v>
+        <v>182776.7397844657</v>
       </c>
       <c r="I2" t="n">
         <v>182776.7397844656</v>
@@ -26353,7 +26355,7 @@
         <v>173533.4060184248</v>
       </c>
       <c r="P2" t="n">
-        <v>173533.4060184248</v>
+        <v>173533.4060184247</v>
       </c>
     </row>
     <row r="3">
@@ -26436,7 +26438,7 @@
         <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>16914.68964098084</v>
+        <v>16914.68964098083</v>
       </c>
       <c r="J4" t="n">
         <v>16914.68964098084</v>
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42504.96041836868</v>
+        <v>42504.96041836867</v>
       </c>
       <c r="C6" t="n">
         <v>111378.7170000585</v>
@@ -26528,7 +26530,7 @@
         <v>111378.7170000585</v>
       </c>
       <c r="E6" t="n">
-        <v>145006.3170000585</v>
+        <v>145006.3170000586</v>
       </c>
       <c r="F6" t="n">
         <v>145006.3170000585</v>
@@ -26537,13 +26539,13 @@
         <v>141479.338405556</v>
       </c>
       <c r="H6" t="n">
-        <v>151208.3813797231</v>
+        <v>151208.3813797232</v>
       </c>
       <c r="I6" t="n">
         <v>151208.3813797231</v>
       </c>
       <c r="J6" t="n">
-        <v>97435.87048951371</v>
+        <v>97435.87048951366</v>
       </c>
       <c r="K6" t="n">
         <v>151208.3813797231</v>
@@ -26558,10 +26560,10 @@
         <v>151208.3813797231</v>
       </c>
       <c r="O6" t="n">
-        <v>145006.3170000586</v>
+        <v>145006.3170000585</v>
       </c>
       <c r="P6" t="n">
-        <v>145006.3170000586</v>
+        <v>145006.3170000585</v>
       </c>
     </row>
   </sheetData>
@@ -34708,10 +34710,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O2" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="O3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="O3" t="n">
-        <v>70.5902951096252</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,10 +34938,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
@@ -34948,10 +34950,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,7 +35020,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>205.5178444382804</v>
@@ -35027,7 +35029,7 @@
         <v>21.52426467247106</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35182,10 +35184,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35252,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M9" t="n">
-        <v>91.61977832229879</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
@@ -35270,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35492,19 +35494,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35656,13 +35658,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O14" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>205.5178444382804</v>
@@ -35735,13 +35737,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
+        <v>12.72573192223801</v>
+      </c>
+      <c r="O15" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="O15" t="n">
-        <v>70.5902951096252</v>
-      </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35896,7 +35898,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35966,16 +35968,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O18" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36200,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36446,16 +36448,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36680,19 +36682,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>169.9091475161414</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,13 +36916,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>91.0829537758999</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37075,7 +37077,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37148,13 +37150,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M33" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37397,10 +37399,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37552,7 +37554,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37622,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>46.78797658628819</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37637,7 +37639,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>81.03173866048648</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37859,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>12.72573192223801</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
@@ -37874,7 +37876,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38023,16 +38025,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1045285.90952271</v>
+        <v>946907.0653266027</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443469</v>
+        <v>14829673.35797655</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4682607.827224399</v>
+        <v>6433404.586807796</v>
       </c>
     </row>
     <row r="11">
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="T2" t="n">
-        <v>181.0201173812374</v>
-      </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>192.5500720523643</v>
+      </c>
+      <c r="W2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>33.68199545419527</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>5.211223902333198</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,64 +895,64 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C5" t="n">
+      <c r="J5" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>136.9013455552336</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>153.1766917053302</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>85.46880764579521</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -986,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1025,13 +1025,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="T8" t="n">
-        <v>21.16030022554292</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>192.5500720523643</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1214,19 +1214,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>3.104732802679692</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -1235,7 +1235,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1372,55 +1372,55 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>21.16030022554292</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D11" t="n">
+      <c r="H11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E11" t="n">
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="F11" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1451,16 +1451,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>119.6102769929015</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="13">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1606,31 +1606,31 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="I14" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1700,13 +1700,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.86438929592808</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
+        <v>91.62348452982238</v>
+      </c>
+      <c r="V15" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="16">
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>241.0142888776591</v>
@@ -1861,7 +1861,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -1988,10 +1988,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>35.40726547353844</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="19">
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,59 +2089,59 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F20" t="n">
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>190.3453970742849</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>125.2132019625774</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>90.26975814551395</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>241.0142888776591</v>
@@ -2362,13 +2362,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>52.42556848774752</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2414,13 +2414,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>67.03143477327541</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2450,22 +2450,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2517,19 +2517,19 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2560,13 +2560,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2636,19 +2636,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>63.63782110757876</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2791,67 +2791,67 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S29" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2870,22 +2870,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>165.6582884690006</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2924,22 +2924,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>71.98374608812802</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3037,67 +3037,67 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>230.2038249569697</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3155,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>142.3851395808584</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3189,61 +3189,61 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3271,16 +3271,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3392,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>222.3082294474576</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3444,49 +3444,49 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,28 +3505,28 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3547,16 +3547,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>222.3396163656985</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>33.51003907654566</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3593,10 +3593,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3635,19 +3635,19 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3660,67 +3660,67 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
     </row>
     <row r="42">
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>47.29627918133474</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3872,16 +3872,16 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
-        <v>205.5178444382804</v>
+        <v>186.3732331246961</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3976,23 +3976,23 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
+      <c r="G44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D44" t="n">
-        <v>31.1509994400877</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
@@ -4024,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>86.21539897205304</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X45" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.44142755506243</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="C2" t="n">
-        <v>16.44142755506243</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="D2" t="n">
-        <v>16.44142755506243</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="E2" t="n">
-        <v>16.44142755506243</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="F2" t="n">
-        <v>16.44142755506243</v>
+        <v>43.96872742349432</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4342,40 +4342,40 @@
         <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S2" t="n">
-        <v>614.4775954922324</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T2" t="n">
-        <v>431.628992076841</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U2" t="n">
-        <v>224.0352098159517</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V2" t="n">
-        <v>16.44142755506243</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="W2" t="n">
-        <v>16.44142755506243</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="X2" t="n">
-        <v>16.44142755506243</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.44142755506243</v>
+        <v>50.91422817269779</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>345.09272902505</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="C3" t="n">
-        <v>170.639699743923</v>
+        <v>277.0992537733839</v>
       </c>
       <c r="D3" t="n">
-        <v>21.70529008267172</v>
+        <v>277.0992537733839</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>277.0992537733839</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
@@ -4421,10 +4421,10 @@
         <v>219.90409354896</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P3" t="n">
         <v>752.6768192397923</v>
@@ -4439,22 +4439,22 @@
         <v>720.9018483060073</v>
       </c>
       <c r="T3" t="n">
-        <v>720.9018483060073</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="U3" t="n">
-        <v>720.9018483060073</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="V3" t="n">
-        <v>720.9018483060073</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="W3" t="n">
-        <v>720.9018483060073</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="X3" t="n">
-        <v>720.9018483060073</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="Y3" t="n">
-        <v>513.308066045118</v>
+        <v>311.1214714038841</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4530,10 +4530,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.0352098159517</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="C5" t="n">
-        <v>16.44142755506243</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="D5" t="n">
-        <v>16.44142755506243</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="E5" t="n">
-        <v>16.44142755506243</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="F5" t="n">
-        <v>16.44142755506243</v>
+        <v>251.5625096843836</v>
       </c>
       <c r="G5" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H5" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J5" t="n">
         <v>16.44142755506243</v>
@@ -4579,40 +4579,40 @@
         <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>396.792197863116</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="X5" t="n">
-        <v>639.2227743377304</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="Y5" t="n">
-        <v>431.628992076841</v>
+        <v>258.5080104335871</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>392.7605727411911</v>
+        <v>103.5276891429948</v>
       </c>
       <c r="C6" t="n">
-        <v>392.7605727411911</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D6" t="n">
-        <v>392.7605727411911</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E6" t="n">
-        <v>392.7605727411911</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F6" t="n">
-        <v>246.2260147680761</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G6" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H6" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I6" t="n">
         <v>17.19556020784815</v>
@@ -4652,19 +4652,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4673,25 +4673,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T6" t="n">
-        <v>547.4845037566762</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="U6" t="n">
-        <v>547.4845037566762</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="V6" t="n">
-        <v>547.4845037566762</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="W6" t="n">
-        <v>547.4845037566762</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="X6" t="n">
-        <v>547.4845037566762</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="Y6" t="n">
-        <v>547.4845037566762</v>
+        <v>103.5276891429948</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4746,31 +4746,31 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>224.0352098159517</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="C8" t="n">
-        <v>16.44142755506243</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="D8" t="n">
-        <v>16.44142755506243</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="E8" t="n">
-        <v>16.44142755506243</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="F8" t="n">
-        <v>16.44142755506243</v>
+        <v>43.96872742349432</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
@@ -4816,7 +4816,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O8" t="n">
         <v>822.0713777531216</v>
@@ -4834,22 +4834,22 @@
         <v>453.0030327087026</v>
       </c>
       <c r="T8" t="n">
-        <v>431.628992076841</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U8" t="n">
-        <v>431.628992076841</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="V8" t="n">
-        <v>431.628992076841</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="W8" t="n">
-        <v>431.628992076841</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="X8" t="n">
-        <v>431.628992076841</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="Y8" t="n">
-        <v>431.628992076841</v>
+        <v>50.91422817269779</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="C9" t="n">
-        <v>814.3015730003187</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="D9" t="n">
-        <v>665.3671633390675</v>
+        <v>369.7808440035221</v>
       </c>
       <c r="E9" t="n">
-        <v>506.1297083336119</v>
+        <v>369.7808440035221</v>
       </c>
       <c r="F9" t="n">
-        <v>359.5951503604969</v>
+        <v>223.2462860304071</v>
       </c>
       <c r="G9" t="n">
-        <v>220.8643249431123</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="H9" t="n">
-        <v>107.4951893506917</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>163.1080096386462</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="W9" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="X9" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="Y9" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J10" t="n">
         <v>38.93586374282289</v>
@@ -4980,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="C11" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="D11" t="n">
-        <v>406.8838132313431</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="E11" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H11" t="n">
         <v>16.44142755506243</v>
@@ -5044,10 +5044,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M11" t="n">
         <v>379.753706324525</v>
@@ -5062,31 +5062,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X11" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y11" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="12">
@@ -5096,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>619.8847831118876</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>445.4317538307606</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>296.4973441695093</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>137.2598891640538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
         <v>16.44142755506243</v>
@@ -5123,19 +5123,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M12" t="n">
-        <v>345.2616536067974</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N12" t="n">
-        <v>548.724319600695</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O12" t="n">
-        <v>752.1869855945927</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
         <v>752.6768192397923</v>
@@ -5150,22 +5150,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>619.8847831118876</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W12" t="n">
-        <v>619.8847831118876</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X12" t="n">
-        <v>619.8847831118876</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y12" t="n">
-        <v>619.8847831118876</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5223,28 +5223,28 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.8838132313431</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C14" t="n">
-        <v>406.8838132313431</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D14" t="n">
-        <v>406.8838132313431</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E14" t="n">
-        <v>406.8838132313431</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="F14" t="n">
         <v>406.8838132313431</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5284,10 +5284,10 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
         <v>583.2163723184226</v>
@@ -5320,10 +5320,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X14" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y14" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>155.1722529724469</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="C15" t="n">
-        <v>155.1722529724469</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="D15" t="n">
-        <v>155.1722529724469</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="E15" t="n">
-        <v>155.1722529724469</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="F15" t="n">
-        <v>155.1722529724469</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I15" t="n">
         <v>16.44142755506243</v>
@@ -5381,28 +5381,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>738.3699744239013</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>564.9526298745702</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>362.7660352333362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>155.1722529724469</v>
+        <v>729.5224034805738</v>
       </c>
       <c r="V15" t="n">
-        <v>155.1722529724469</v>
+        <v>521.9286212196845</v>
       </c>
       <c r="W15" t="n">
-        <v>155.1722529724469</v>
+        <v>314.3348389587952</v>
       </c>
       <c r="X15" t="n">
-        <v>155.1722529724469</v>
+        <v>314.3348389587952</v>
       </c>
       <c r="Y15" t="n">
-        <v>155.1722529724469</v>
+        <v>106.7410566979059</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5472,16 +5472,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E17" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F17" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G17" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>383.2428491569326</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5624,19 +5624,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V18" t="n">
-        <v>298.4948343740486</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W18" t="n">
-        <v>55.04605772994853</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y18" t="n">
         <v>19.28114311021272</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E19" t="n">
         <v>19.28114311021272</v>
@@ -5697,28 +5697,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>761.6974622895962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>761.6974622895962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>761.6974622895962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>761.6974622895962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W20" t="n">
-        <v>761.6974622895962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X20" t="n">
-        <v>761.6974622895962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y20" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20.03527576299844</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C21" t="n">
-        <v>20.03527576299844</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O21" t="n">
         <v>964.0571555106362</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>837.579173730255</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>837.579173730255</v>
       </c>
       <c r="U21" t="n">
-        <v>396.1021129885993</v>
+        <v>837.579173730255</v>
       </c>
       <c r="V21" t="n">
-        <v>396.1021129885993</v>
+        <v>837.579173730255</v>
       </c>
       <c r="W21" t="n">
-        <v>396.1021129885993</v>
+        <v>594.130397086155</v>
       </c>
       <c r="X21" t="n">
-        <v>188.2506127830665</v>
+        <v>386.2788968806221</v>
       </c>
       <c r="Y21" t="n">
-        <v>188.2506127830665</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="22">
@@ -5943,10 +5943,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5971,10 +5971,10 @@
         <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
         <v>262.7299197543128</v>
@@ -6010,22 +6010,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W23" t="n">
         <v>749.627473042513</v>
@@ -6034,7 +6034,7 @@
         <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>178.0434248788474</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C24" t="n">
-        <v>178.0434248788474</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D24" t="n">
-        <v>178.0434248788474</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E24" t="n">
-        <v>178.0434248788474</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>178.0434248788474</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>178.0434248788474</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6098,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>761.8705608694022</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>554.0190606638694</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>346.2587618989155</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="25">
@@ -6165,16 +6165,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
         <v>19.28114311021272</v>
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6265,13 +6265,13 @@
         <v>477.1596022224361</v>
       </c>
       <c r="W26" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X26" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>242.7992254970609</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>242.7992254970609</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>83.56177049160542</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>83.56177049160542</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6311,46 +6311,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>909.0960185696777</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="X27" t="n">
-        <v>49.38115216564972</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>417.2522547781879</v>
       </c>
     </row>
     <row r="28">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>481.3994074699755</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="C30" t="n">
-        <v>306.9463781888485</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="D30" t="n">
-        <v>158.0119685275972</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E30" t="n">
-        <v>158.0119685275972</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F30" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6551,16 +6551,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6572,22 +6572,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>689.1597062349294</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>689.1597062349294</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W30" t="n">
-        <v>689.1597062349294</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X30" t="n">
-        <v>689.1597062349294</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="Y30" t="n">
-        <v>481.3994074699755</v>
+        <v>492.3847606029253</v>
       </c>
     </row>
     <row r="31">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="33">
@@ -6755,10 +6755,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D33" t="n">
         <v>19.28114311021272</v>
@@ -6782,19 +6782,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>928.2922408909005</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>726.1056462496665</v>
+        <v>646.8164376473068</v>
       </c>
       <c r="U33" t="n">
-        <v>497.8820279860555</v>
+        <v>646.8164376473068</v>
       </c>
       <c r="V33" t="n">
-        <v>262.7299197543128</v>
+        <v>411.6643294155641</v>
       </c>
       <c r="W33" t="n">
-        <v>19.28114311021272</v>
+        <v>168.215552771464</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>168.215552771464</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="34">
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
         <v>19.28114311021272</v>
@@ -6891,19 +6891,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -7031,7 +7031,7 @@
         <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7040,22 +7040,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>533.6469426057913</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V36" t="n">
-        <v>298.4948343740486</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W36" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X36" t="n">
         <v>19.28114311021272</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
         <v>19.28114311021272</v>
@@ -7134,13 +7134,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>960.7588564629629</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>749.627473042513</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>478.9995557818393</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7259,16 +7259,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7283,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W39" t="n">
-        <v>720.6083788665362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X39" t="n">
-        <v>720.6083788665362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
-        <v>512.8480801015824</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F41" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
         <v>16.44142755506243</v>
@@ -7414,19 +7414,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7435,25 +7435,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T41" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U41" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V41" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="W41" t="n">
-        <v>431.628992076841</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="X41" t="n">
-        <v>431.628992076841</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="Y41" t="n">
         <v>431.628992076841</v>
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>238.668476211275</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
         <v>16.44142755506243</v>
@@ -7493,22 +7493,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>211.6833797714288</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>415.1460457653264</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N42" t="n">
-        <v>618.608711759224</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7520,22 +7520,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7593,10 +7593,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
         <v>16.44142755506243</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>255.5008658160403</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C44" t="n">
-        <v>47.90708355515102</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
         <v>16.44142755506243</v>
@@ -7663,7 +7663,7 @@
         <v>706.4576170384386</v>
       </c>
       <c r="O44" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7672,28 +7672,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>670.6884303378189</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U44" t="n">
-        <v>670.6884303378189</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V44" t="n">
-        <v>670.6884303378189</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W44" t="n">
-        <v>670.6884303378189</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X44" t="n">
-        <v>670.6884303378189</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y44" t="n">
-        <v>463.0946480769296</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="45">
@@ -7730,46 +7730,46 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>345.2616536067974</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>518.7152536647734</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>518.7152536647734</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V45" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W45" t="n">
         <v>224.0352098159517</v>
       </c>
       <c r="X45" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y45" t="n">
         <v>16.44142755506243</v>
@@ -7839,10 +7839,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
         <v>16.44142755506243</v>
@@ -7990,13 +7990,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8069,13 +8069,13 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>279.489774794024</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>261.0929869123474</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8227,13 +8227,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O5" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8300,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8464,10 +8464,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O8" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>286.7024424905649</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,13 +8692,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M11" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8771,22 +8771,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>134.4691888741278</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8932,13 +8932,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M14" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -9254,13 +9254,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9482,10 +9482,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
@@ -9494,7 +9494,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -9959,10 +9959,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>195.4980740263837</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10199,19 +10199,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10430,22 +10430,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10679,10 +10679,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>382.6009056104135</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10907,19 +10907,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11062,13 +11062,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>415.4335334139435</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11077,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,13 +11141,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>209.1446748894994</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>336.8595565216137</v>
@@ -11156,10 +11156,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11311,10 +11311,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>346.8797879011645</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>155.3219763666824</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>42.07573218289394</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22634,22 +22634,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>152.4338565530678</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,25 +22676,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22746,34 +22746,34 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177.2159972252002</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>188.7109832972317</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22862,16 +22862,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13.35649194453714</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -22880,7 +22880,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -22916,22 +22916,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22983,34 +22983,34 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,31 +23020,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>3.502225147964936</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>201.9355493385884</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23099,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>165.0163922830409</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23178,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23220,34 +23220,34 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23260,22 +23260,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>176.4125256339814</v>
+        <v>360.7700698467189</v>
       </c>
       <c r="F11" t="n">
-        <v>225.855928360474</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23302,13 +23302,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23339,16 +23339,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>25.45893540048239</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -23390,22 +23390,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>70.67486577968219</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="13">
@@ -23442,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37591561768433</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23472,7 +23472,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23494,31 +23494,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>158.4546847345297</v>
       </c>
       <c r="I14" t="n">
-        <v>41.40506154378102</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23588,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>17.29344485671506</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>134.3178975511524</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="16">
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23740,7 +23740,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>165.8617568640524</v>
@@ -23749,7 +23749,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>127.189416472325</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23779,10 +23779,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23864,7 +23864,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23876,10 +23876,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>170.365719729939</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="19">
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23937,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23977,22 +23977,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24022,13 +24022,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>32.75045248984648</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24056,7 +24056,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>46.46996914126041</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>135.6716239354609</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24183,13 +24183,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>174.288448637476</v>
@@ -24250,13 +24250,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>156.5945010984978</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24268,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>345.9756526602164</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24293,7 +24293,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>127.8460714905183</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24302,13 +24302,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>45.20400946322106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24338,22 +24338,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24405,19 +24405,19 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24448,13 +24448,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24505,10 +24505,10 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>157.4457150350269</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24524,19 +24524,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>73.70569605563188</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24688,7 +24688,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24697,7 +24697,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24727,19 +24727,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>215.4233321629012</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24758,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0.87489518086673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24812,22 +24812,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>153.9576359928468</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24925,10 +24925,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24970,7 +24970,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24979,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>119.0371437604433</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -25001,7 +25001,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>64.7505686791048</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>57.77958911396325</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25131,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25159,16 +25159,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25201,16 +25201,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>171.0109458920165</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25280,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>10.49235770196771</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>170.365719729939</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25332,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25402,19 +25402,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,16 +25435,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>146.6038018839531</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0.7562331984328523</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25469,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>133.0231445733217</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25481,10 +25481,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25523,19 +25523,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>150.1070334262686</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25608,7 +25608,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25639,13 +25639,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25675,7 +25675,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25690,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>168.2208513361756</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>355.0869392159659</v>
       </c>
     </row>
     <row r="42">
@@ -25706,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>100.148786383304</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25760,16 +25760,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>65.32175003622348</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25833,13 +25833,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>323.5320421805953</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25912,16 +25912,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>42.075732182894</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>146.5851881773722</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>70.67486577968216</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26079,13 +26079,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>394496.1329214216</v>
+        <v>1001127.916354726</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>394496.1329214216</v>
+        <v>1001127.916354726</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>394496.1329214217</v>
+        <v>1001127.916354726</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>394496.1329214219</v>
+        <v>394496.1329214216</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>394496.1329214218</v>
+        <v>394496.1329214217</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>415520.771218475</v>
+        <v>415520.7712184747</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>415520.7712184748</v>
+        <v>415520.7712184749</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>415520.771218475</v>
+        <v>415520.7712184748</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>415520.7712184749</v>
+        <v>415520.7712184748</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>415520.7712184748</v>
+        <v>415520.771218475</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>415520.771218475</v>
+        <v>415520.7712184748</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>394496.1329214217</v>
+        <v>394496.1329214218</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>394496.1329214217</v>
+        <v>394496.1329214218</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>451572.9734253558</v>
+      </c>
+      <c r="C2" t="n">
+        <v>451572.9734253557</v>
+      </c>
+      <c r="D2" t="n">
+        <v>451572.973425356</v>
+      </c>
+      <c r="E2" t="n">
         <v>173533.4060184247</v>
-      </c>
-      <c r="C2" t="n">
-        <v>173533.4060184247</v>
-      </c>
-      <c r="D2" t="n">
-        <v>173533.4060184247</v>
-      </c>
-      <c r="E2" t="n">
-        <v>173533.4060184248</v>
       </c>
       <c r="F2" t="n">
         <v>173533.4060184248</v>
@@ -26331,7 +26331,7 @@
         <v>182776.7397844656</v>
       </c>
       <c r="H2" t="n">
-        <v>182776.7397844657</v>
+        <v>182776.7397844656</v>
       </c>
       <c r="I2" t="n">
         <v>182776.7397844656</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16031.60407651876</v>
+        <v>304569.4782239668</v>
       </c>
       <c r="C4" t="n">
-        <v>16031.60407651876</v>
+        <v>304569.4782239668</v>
       </c>
       <c r="D4" t="n">
-        <v>16031.60407651876</v>
+        <v>304569.4782239668</v>
       </c>
       <c r="E4" t="n">
         <v>16031.60407651876</v>
@@ -26435,10 +26435,10 @@
         <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
+        <v>16914.68964098083</v>
+      </c>
+      <c r="I4" t="n">
         <v>16914.68964098084</v>
-      </c>
-      <c r="I4" t="n">
-        <v>16914.68964098083</v>
       </c>
       <c r="J4" t="n">
         <v>16914.68964098084</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42504.96041836867</v>
+        <v>32006.65367785164</v>
       </c>
       <c r="C6" t="n">
-        <v>111378.7170000585</v>
+        <v>100880.4102595414</v>
       </c>
       <c r="D6" t="n">
-        <v>111378.7170000585</v>
+        <v>100880.4102595417</v>
       </c>
       <c r="E6" t="n">
-        <v>145006.3170000586</v>
+        <v>132368.154845198</v>
       </c>
       <c r="F6" t="n">
-        <v>145006.3170000585</v>
+        <v>132368.154845198</v>
       </c>
       <c r="G6" t="n">
-        <v>141479.338405556</v>
+        <v>129261.3277855155</v>
       </c>
       <c r="H6" t="n">
-        <v>151208.3813797232</v>
+        <v>138990.3707596826</v>
       </c>
       <c r="I6" t="n">
-        <v>151208.3813797231</v>
+        <v>138990.3707596826</v>
       </c>
       <c r="J6" t="n">
-        <v>97435.87048951366</v>
+        <v>85217.85986947322</v>
       </c>
       <c r="K6" t="n">
-        <v>151208.3813797231</v>
+        <v>138990.3707596826</v>
       </c>
       <c r="L6" t="n">
-        <v>151208.3813797231</v>
+        <v>138990.3707596826</v>
       </c>
       <c r="M6" t="n">
-        <v>151208.3813797231</v>
+        <v>138990.3707596827</v>
       </c>
       <c r="N6" t="n">
-        <v>151208.3813797231</v>
+        <v>138990.3707596826</v>
       </c>
       <c r="O6" t="n">
-        <v>145006.3170000585</v>
+        <v>132368.154845198</v>
       </c>
       <c r="P6" t="n">
-        <v>145006.3170000585</v>
+        <v>132368.154845198</v>
       </c>
     </row>
   </sheetData>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>135.2021864177706</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>139.0265035341205</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,25 +27508,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -27536,34 +27536,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,34 +27578,34 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>114.4443073526029</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>87.23969134252053</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -27773,34 +27773,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,34 +27815,34 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>58.7955808554722</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,22 +27931,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>134.2387843605309</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27955,7 +27955,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27982,25 +27982,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>140.1931807347553</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -34710,13 +34710,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34789,13 +34789,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>127.1185794980172</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34947,13 +34947,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O5" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35184,10 +35184,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O8" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M11" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0.494781459797586</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35652,13 +35652,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35892,13 +35892,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35974,13 +35974,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36135,7 +36135,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36202,10 +36202,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
@@ -36214,7 +36214,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36679,10 +36679,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36694,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>55.51629994036219</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37399,10 +37399,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>240.0046611659691</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>185.0873001866707</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37797,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>70.5902951096252</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>205.5178444382804</v>
@@ -37876,10 +37876,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38031,10 +38031,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>116.7815764794778</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
